--- a/theDAOETCRefundBalance_20160412.xlsx
+++ b/theDAOETCRefundBalance_20160412.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28080" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28080" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
-    <sheet name="output (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="output (2)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Block</t>
   </si>
@@ -41,13 +42,19 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,9 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +118,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The DAO ETC Refund Contract Balance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (ETC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1886,11 +1924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437886112"/>
-        <c:axId val="439453504"/>
+        <c:axId val="419332416"/>
+        <c:axId val="412512336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437886112"/>
+        <c:axId val="419332416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1948,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:numFmt formatCode="mmm\ dd\ yy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1947,12 +1985,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439453504"/>
+        <c:crossAx val="412512336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439453504"/>
+        <c:axId val="412512336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437886112"/>
+        <c:crossAx val="419332416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2072,6 +2111,2003 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The DAO ETC Refund Contract Balance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (ETC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$C$2:$C$280</c:f>
+              <c:numCache>
+                <c:formatCode>d/mm/yyyy;@</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>42571.55600694444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42573.66561342592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42574.71829861111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42575.44605324073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42576.07974537037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42577.10885416667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42577.8204050926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42578.73815972223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42579.75373842592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42580.69427083334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42581.64545138889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42582.60608796297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42583.49461805555</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42584.37574074074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42585.27065972222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42586.25136574074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42587.24746527777</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42588.19899305556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42589.11454861111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42590.0990625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42591.04288194445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42592.05642361111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42593.01962962963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42593.94142361111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42594.88844907407</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42595.85171296296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42596.8010300926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42597.75181712962</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42598.71671296297</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42599.67832175926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42600.64318287037</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42601.60288194445</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42602.55840277778</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42603.49476851852</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42604.45296296296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42605.41746527777</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42606.37679398149</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42607.35940972222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42608.32590277778</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42609.26921296296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42610.22836805556</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42611.19586805555</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42612.15847222222</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42613.1241087963</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42614.09229166667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42615.02488425926</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42615.97423611111</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42616.94994212964</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42617.88780092592</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42618.8205787037</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42619.76778935186</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42620.72127314815</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42621.67283564814</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42622.63836805556</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42623.59189814815</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42624.55994212963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42625.52918981481</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42626.48946759259</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42627.4455787037</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42628.40298611111</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42629.36454861111</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42630.3153125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42631.26751157407</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42632.19862268519</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42633.20238425926</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42634.16932870371</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42635.11678240741</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42636.04591435185</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42637.0100925926</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42637.98828703703</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42638.92182870371</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42639.86927083333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42640.85215277777</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42641.78611111111</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42642.72512731481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42643.68917824074</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42644.64275462963</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42645.60207175926</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42646.56150462963</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42647.51421296296</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42648.4734837963</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42649.40607638888</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42650.36055555555</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42651.32949074074</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42652.26540509259</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42653.20163194444</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42654.15517361111</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42655.14270833333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42656.12516203704</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42657.05712962963</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42658.02519675926</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42658.95642361111</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42659.90233796296</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42660.84961805555</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42661.82971064815</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42662.81763888888</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42663.72978009259</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42664.67159722222</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42665.620625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42666.57436342592</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42667.51975694444</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42668.47037037037</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42669.40173611111</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42670.33814814814</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42671.29807870371</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42672.27930555555</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42673.26981481482</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42674.20842592593</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42675.1674537037</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42676.16974537037</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42677.14037037037</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42678.11459490741</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42679.08099537037</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42679.99138888888</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42680.94626157407</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42681.8634837963</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42682.7919675926</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42683.75164351852</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42684.69770833333</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42685.6312962963</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42686.5398263889</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42687.42628472223</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42688.26763888889</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42689.11386574074</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42689.93925925926</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42690.85166666667</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42691.78685185185</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42692.7176388889</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42693.59135416667</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42694.4584375</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42695.41947916667</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42696.37890046296</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42697.31</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42698.27993055555</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42699.22950231482</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42700.15383101851</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42701.11027777777</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42702.05226851851</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42702.98383101851</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42703.91543981481</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42704.86342592593</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42705.79716435185</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42706.71799768518</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42707.64269675926</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42708.57359953703</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42709.50193287037</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42710.39418981482</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42711.351875</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42712.29912037037</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42713.23318287038</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42714.15648148148</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42715.05201388888</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42715.9547337963</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42716.89284722222</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42717.81261574073</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42718.73806712963</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42719.62157407407</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42720.52023148148</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42721.43625</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42722.36689814814</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42723.261875</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42724.1587037037</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42725.08798611111</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42726.03116898148</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42726.97560185185</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42727.92739583334</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42728.84591435185</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42729.77826388889</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42730.70309027778</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42731.6337962963</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42732.57076388889</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42733.49019675926</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42734.37362268519</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42735.29752314815</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42736.23579861112</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42737.1684375</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42738.08460648148</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42739.03121527777</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42739.93106481481</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42740.85265046296</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42741.78966435185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42742.72039351852</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42743.65866898149</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42744.59547453704</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42745.52416666667</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42746.46944444445</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42747.42414351852</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42748.36221064814</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42749.29638888889</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42750.25628472222</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42751.19761574074</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42752.14695601852</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42753.10528935185</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42754.05854166667</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42754.99935185185</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42755.92994212963</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42756.86616898148</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42757.81019675926</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42758.75344907407</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42759.69226851852</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42760.63579861111</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42761.57376157407</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42762.52030092593</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42763.50859953703</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42764.47944444444</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42765.44986111111</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42766.4188425926</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42767.3937962963</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42768.35777777778</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42769.3378587963</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42770.30315972222</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42771.26039351852</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42772.21849537037</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42773.17674768518</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42774.133125</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42775.09502314815</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42776.0722800926</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42777.03358796296</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42777.99000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42778.9525462963</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42779.9057175926</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42780.87546296296</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42781.82605324074</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42782.77626157408</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42783.73798611111</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42784.7002662037</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42785.64398148148</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42786.59988425926</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42787.54987268518</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42788.4982638889</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42789.44158564815</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42790.39521990741</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42791.34704861111</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42792.29621527777</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42793.24626157407</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42794.22130787037</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42795.16827546295</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42796.1174537037</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42797.08552083334</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42798.02895833334</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42798.96449074074</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42799.91525462962</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42800.86702546296</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42801.8194212963</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42802.73219907407</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42803.70262731481</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42804.65152777778</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42805.61652777777</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42806.55236111111</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42807.51886574074</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42808.51194444444</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42809.49339120371</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42810.48494212963</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42811.51667824073</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42812.49924768518</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42813.47929398148</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42814.47361111111</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42815.4585185185</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42816.36454861111</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42817.3812962963</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42818.35349537037</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42819.35143518518</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42820.35125</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42821.3288888889</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42822.31998842592</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42823.30371527777</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>42824.28112268518</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>42825.2203125</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>42826.16770833333</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>42827.15336805556</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>42828.12307870371</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>42829.08598379629</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>42830.05863425925</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>42831.02547453703</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>42831.98957175926</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>42832.96974537037</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>42833.92550925926</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>42834.90560185185</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>42835.87368055555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$D$2:$D$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.30081165440602E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.21998173485844E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.94683154647914E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.87396790462152E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.81584076770955E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.70488831717965E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.68668295068305E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.67321137770362E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.76839068244644E6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.34459477699398E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.26642309754329E6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.20747916713323E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.19708701857819E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.14647853114398E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.12051769193093E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.10257199010913E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.09622718196776E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.07465997496719E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.99703118650362E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.99056010552155E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.98784671930701E6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.87278915799472E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.86323975572786E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.85910193926586E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.85213145388355E6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.84858524602986E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.84660593220962E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.84065149154876E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8356969519454E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.83321926279163E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.81800989702826E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.79970206178639E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.72784918258756E6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.71270815834878E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.71003308888491E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.70660327285247E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.70513909211484E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.69439688025378E6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.68930949178433E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.68261008338626E6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.67580860239112E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.67322592091229E6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6230901772917E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.55982360264404E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.55451200667493E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.55307891446521E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.52396125106658E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.50695367843155E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.49692719963991E6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.49439237797316E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.48304731357234E6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.47968779893841E6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.47638563378762E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.47289304892275E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.46398881714181E6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.46269042261939E6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.46249242451389E6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.46207482148789E6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.46175130931293E6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.46148363177825E6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.46148363177825E6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.46099148631206E6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.45645982522808E6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.45539845197363E6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.45430897789244E6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.44941356471991E6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.44891487488082E6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.4416770349606E6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.44138271855993E6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.44138271854094E6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.44105167654228E6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.43887305256245E6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.43421376061781E6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.43403088059426E6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.43336967165869E6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.42970260274492E6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.42375935428351E6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.42365401538994E6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.41990906723952E6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.41740970648635E6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.41737569426722E6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.41737569426722E6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.41663093741069E6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.41640457000201E6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.41466980980028E6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.41435208111673E6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.39764999766764E6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.39756943647425E6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.39730725286624E6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.39693951276815E6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.39669533231687E6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.39669105797687E6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.3966130494671E6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.39609011805175E6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.39609011805175E6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.39253711016171E6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.3916355116456E6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.38917646726785E6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.38910530323996E6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.3882072355275E6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.38621354686087E6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.38617381486946E6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.38524434552831E6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.38209021422765E6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.36614819681451E6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.36563238644814E6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.36553842774671E6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.36549941058629E6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.36549378350864E6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.36540507450522E6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.36085484077562E6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.36084403706487E6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.36073406358657E6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.35020548887818E6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.34999365169786E6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.34946207930129E6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.34900609057844E6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.34502702315737E6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.28715904800546E6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.28325748459502E6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.28216973364925E6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.28155750814683E6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.28000563761282E6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.28000563761282E6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.27999832241188E6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.27999590839557E6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.27987723145228E6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.27976331630641E6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.27838444056645E6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.2779097612144E6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.27723711300197E6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.2771919831346E6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.27314262136475E6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.26809624723068E6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.26787020779664E6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.2668885241868E6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.22656227039501E6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.22467951223351E6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.22458824290976E6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.22387525148546E6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.22357834942482E6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.22335203949943E6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.14204108199371E6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.1417921886283E6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.13188740650132E6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.13088222933439E6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.12832190900465E6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.12824582359965E6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.128143370198E6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.1280822678285E6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.07300817579465E6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.07286869929669E6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.07001967963873E6</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.06998310363402E6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.0699719677642E6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.06737478393432E6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.06222883896254E6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.06188819443867E6</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.06185988779154E6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.06164353699399E6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.06116135441553E6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.04834335519855E6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.04758187905106E6</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.04601086487554E6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.03735277001778E6</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.0372648765291E6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.0372648765291E6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.03724293092628E6</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.03724006336751E6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.02863097162836E6</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.0263673210951E6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.02611128283091E6</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.02526511386256E6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.02509914157273E6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.02509914157273E6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.02509914157273E6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.0239279779019E6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.02375574482081E6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.02370529515914E6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.02348583913088E6</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.02333953511204E6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.02323867467274E6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.02322832383542E6</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.022270032512E6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.02222195982181E6</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.02222195982181E6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.02080994010062E6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.02030336395796E6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.02026691187166E6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.02024877518083E6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.01886206797776E6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.01829833903977E6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.01782268430867E6</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.01232239248252E6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.01232239248252E6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.00939631210568E6</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.00922001576298E6</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.00901762853691E6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.00840815338137E6</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.0083307489555E6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.00758645705054E6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.00758645705054E6</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.0072526116645E6</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.0072526116645E6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.0065476828405E6</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.00472266547492E6</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.00413698168512E6</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.003843747582E6</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.0033124298521E6</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.00209663454291E6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.00036490470813E6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.00009115066695E6</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.00009115066695E6</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.99969670510243E6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.99869703135512E6</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.99640444833727E6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.9957523802032E6</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.99086015312856E6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.98445801893871E6</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.9724736355508E6</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.9718884862718E6</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.97085210375905E6</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.96288041785334E6</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.9628390609523E6</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.95543449753274E6</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.80540644318861E6</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.80491366465241E6</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.73132347973062E6</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.73119890872905E6</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.72937290569986E6</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.72873524943331E6</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.72716293103384E6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.70805462701123E6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.69234918856706E6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.6892986372229E6</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.67818670161668E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438099712"/>
+        <c:axId val="438101760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438099712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42840.0"/>
+          <c:min val="42611.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mmm\ dd\ yy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438101760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30.0"/>
+        <c:minorUnit val="7.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="438101760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438099712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2396,11 +4432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437228528"/>
-        <c:axId val="416091696"/>
+        <c:axId val="443043824"/>
+        <c:axId val="443045872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437228528"/>
+        <c:axId val="443043824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,12 +4493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416091696"/>
+        <c:crossAx val="443045872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="416091696"/>
+        <c:axId val="443045872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +4554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437228528"/>
+        <c:crossAx val="443043824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2608,6 +4644,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3679,20 +5755,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3715,6 +6307,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4014,10 +6643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="S261" sqref="S261"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4507,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2098560</v>
       </c>
@@ -4522,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2104320</v>
       </c>
@@ -4537,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2110080</v>
       </c>
@@ -4552,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2115840</v>
       </c>
@@ -4567,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2121600</v>
       </c>
@@ -4582,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2127360</v>
       </c>
@@ -4597,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2133120</v>
       </c>
@@ -4612,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2138880</v>
       </c>
@@ -4627,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2144640</v>
       </c>
@@ -4642,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2150400</v>
       </c>
@@ -4657,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2156160</v>
       </c>
@@ -4671,8 +7300,12 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
+        <f>C43</f>
+        <v>42611.195868055554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2161920</v>
       </c>
@@ -4687,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2167680</v>
       </c>
@@ -4702,7 +7335,7 @@
         <v>2300811.65440602</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2173440</v>
       </c>
@@ -4717,7 +7350,7 @@
         <v>2219981.7348584398</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2179200</v>
       </c>
@@ -4732,7 +7365,7 @@
         <v>2946831.5464791399</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2184960</v>
       </c>
@@ -8107,7 +10740,7 @@
         <v>1731323.47973062</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3480960</v>
       </c>
@@ -8122,7 +10755,7 @@
         <v>1731198.9087290501</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3486720</v>
       </c>
@@ -8137,7 +10770,7 @@
         <v>1729372.9056998601</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3492480</v>
       </c>
@@ -8152,7 +10785,7 @@
         <v>1728735.24943331</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3498240</v>
       </c>
@@ -8167,7 +10800,7 @@
         <v>1727162.9310338399</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3504000</v>
       </c>
@@ -8182,7 +10815,7 @@
         <v>1708054.62701123</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>3509760</v>
       </c>
@@ -8197,7 +10830,7 @@
         <v>1692349.18856706</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3515520</v>
       </c>
@@ -8212,7 +10845,7 @@
         <v>1689298.6372229001</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>3521280</v>
       </c>
@@ -8225,6 +10858,28 @@
       </c>
       <c r="D280">
         <v>1678186.70161668</v>
+      </c>
+      <c r="E280" s="2">
+        <f>C280</f>
+        <v>42835.873680555553</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <f>MAX(D2:D280)</f>
+        <v>3768390.6824464402</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283">
+        <f>D280/D282</f>
+        <v>0.4453324623250583</v>
       </c>
     </row>
   </sheetData>
@@ -8235,9 +10890,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>

--- a/theDAOETCRefundBalance_20160412.xlsx
+++ b/theDAOETCRefundBalance_20160412.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/TheDAOETCRefunds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/TheDAORefundsCalcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28080" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28080" windowHeight="16820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -1924,11 +1924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419332416"/>
-        <c:axId val="412512336"/>
+        <c:axId val="478220752"/>
+        <c:axId val="383758000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419332416"/>
+        <c:axId val="478220752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,13 +1985,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412512336"/>
+        <c:crossAx val="383758000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412512336"/>
+        <c:axId val="383758000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419332416"/>
+        <c:crossAx val="478220752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3917,11 +3917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438099712"/>
-        <c:axId val="438101760"/>
+        <c:axId val="415120608"/>
+        <c:axId val="415187488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438099712"/>
+        <c:axId val="415120608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42840.0"/>
@@ -3980,14 +3980,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438101760"/>
+        <c:crossAx val="415187488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30.0"/>
         <c:minorUnit val="7.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438101760"/>
+        <c:axId val="415187488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4044,7 +4044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438099712"/>
+        <c:crossAx val="415120608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4108,7 +4108,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4432,11 +4431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443043824"/>
-        <c:axId val="443045872"/>
+        <c:axId val="443793280"/>
+        <c:axId val="443795328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443043824"/>
+        <c:axId val="443793280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,12 +4492,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443045872"/>
+        <c:crossAx val="443795328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443045872"/>
+        <c:axId val="443795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +4553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443043824"/>
+        <c:crossAx val="443793280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6340,6 +6339,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15760700" y="241300"/>
+          <a:ext cx="1866900" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(c) BokkyPooBah Apr 12 2017</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6645,7 +6708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
@@ -10892,8 +10955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/theDAOETCRefundBalance_20160412.xlsx
+++ b/theDAOETCRefundBalance_20160412.xlsx
@@ -148,7 +148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1924,11 +1923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="478220752"/>
-        <c:axId val="383758000"/>
+        <c:axId val="419368976"/>
+        <c:axId val="419370608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="478220752"/>
+        <c:axId val="419368976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,13 +1984,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383758000"/>
+        <c:crossAx val="419370608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383758000"/>
+        <c:axId val="419370608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478220752"/>
+        <c:crossAx val="419368976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3917,11 +3916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415120608"/>
-        <c:axId val="415187488"/>
+        <c:axId val="382772432"/>
+        <c:axId val="478860208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415120608"/>
+        <c:axId val="382772432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42840.0"/>
@@ -3980,14 +3979,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415187488"/>
+        <c:crossAx val="478860208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30.0"/>
         <c:minorUnit val="7.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415187488"/>
+        <c:axId val="478860208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4044,7 +4043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415120608"/>
+        <c:crossAx val="382772432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4431,11 +4430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443793280"/>
-        <c:axId val="443795328"/>
+        <c:axId val="419366928"/>
+        <c:axId val="478563600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443793280"/>
+        <c:axId val="419366928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,12 +4491,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443795328"/>
+        <c:crossAx val="478563600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443795328"/>
+        <c:axId val="478563600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443793280"/>
+        <c:crossAx val="419366928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
